--- a/docs/assets/disciplinas/LOM3075.xlsx
+++ b/docs/assets/disciplinas/LOM3075.xlsx
@@ -146,7 +146,7 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOM3074 -  Processamento de Cerâmicas II  (Requisito)
+    <t xml:space="preserve">LOM3111 -  Processamento de Cerâmicas Experimental  (Requisito fraco)
 </t>
   </si>
 </sst>

--- a/docs/assets/disciplinas/LOM3075.xlsx
+++ b/docs/assets/disciplinas/LOM3075.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Propiciar conhecimento básico de materiais cerâmicos refratários envolvendo matérias primas, processamento, aplicação e principais mecanismos de desgaste quando em operação, a fim de aprimorar a formação do Engenheiro de Materiais numa área de Ciência e Engenharia de Materiais presente em todos os segmentos da indústria de base do país.</t>
+    <t>5983729 - Fernando Vernilli Junior</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5983729 - Fernando Vernilli Junior</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Introdução à tecnologia de refratários. Matérias primas utilizadas em refratários. Materiais refratários não formados. Materiais refratários formados. Fundamentos de corrosão em refratários. Metodologia para estudos post mortem em refratários. Estudo de casos</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,20 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Conteúdo teórico: 
-1. Introdução à tecnologia de refratários. 
-2. Matérias primas utilizadas em refratários (características e síntese). 
-3. Materiais refratários não formados (características, aplicações e processamento). 
-4. Materiais refratários formados (características, aplicações e processamento).
-5. Fundamentos de corrosão em refratários. 
-6. Metodologia para estudos post mortem em refratários. 
-7. Estudo de casos 
-Conteúdo prático: 
-1. Conformação e caracterização de refratários. 
-2. Visita a fabricantes de refratários. 
-3. Visita a usuários de refratários.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -117,30 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>A avaliação será constituída por aulas expositivas, aulas de exercícios e laboratórios. Serão aplicadas pelo menos duas provas.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota final será a média ponderada das provas escritas (80% da nota final) e das listas de exercícios e relatórios (20% da nota final).</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação será uma prova escrita (RE) que comporá com a nota final (NF) a média final (MF), sendo MF = (NF + RE)/2.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1. Carniglia, S. C.; Barna, G. L. Handbook of industrial refractories technology. Noyes Publications. 2004. 
-2. Heinrich J. G. Introduction to the Principles of Ceramic Forming. CFI Publication. 1995.
-3. Levin, E. M. Phase Diagrams for Ceramists. The American Ceramic Society. 1964.
-4. Kingery, W. D. Introduction to Ceramics. John Wiley, 1970.
-5. Kingery, W. D. Ceramic Fabrication Process. MIT Press e John Wiley, 1958.
-6. Reed, J. S. Introduction to the Principles of ceramics Processing, John Wiley, 1988.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -503,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,106 +603,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3075.xlsx
+++ b/docs/assets/disciplinas/LOM3075.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Propiciar conhecimento básico de materiais cerâmicos refratários envolvendo matérias primas, processamento, aplicação e principais mecanismos de desgaste quando em operação, a fim de aprimorar a formação do Engenheiro de Materiais numa área de Ciência e Engenharia de Materiais presente em todos os segmentos da indústria de base do país.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5983729 - Fernando Vernilli Junior</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Introdução à tecnologia de refratários. Matérias primas utilizadas em refratários. Materiais refratários não formados. Materiais refratários formados. Fundamentos de corrosão em refratários. Metodologia para estudos post mortem em refratários. Estudo de casos</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,20 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Conteúdo teórico: 
+1. Introdução à tecnologia de refratários. 
+2. Matérias primas utilizadas em refratários (características e síntese). 
+3. Materiais refratários não formados (características, aplicações e processamento). 
+4. Materiais refratários formados (características, aplicações e processamento).
+5. Fundamentos de corrosão em refratários. 
+6. Metodologia para estudos post mortem em refratários. 
+7. Estudo de casos 
+Conteúdo prático: 
+1. Conformação e caracterização de refratários. 
+2. Visita a fabricantes de refratários. 
+3. Visita a usuários de refratários.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +117,30 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>A avaliação será constituída por aulas expositivas, aulas de exercícios e laboratórios. Serão aplicadas pelo menos duas provas.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A avaliação será constituída por aulas expositivas, aulas de exercícios e laboratórios. Serão aplicadas pelo menos duas provas.</t>
+    <t>A nota final será a média ponderada das provas escritas (80% da nota final) e das listas de exercícios e relatórios (20% da nota final).</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A nota final será a média ponderada das provas escritas (80% da nota final) e das listas de exercícios e relatórios (20% da nota final).</t>
+    <t>A recuperação será uma prova escrita (RE) que comporá com a nota final (NF) a média final (MF), sendo MF = (NF + RE)/2.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A recuperação será uma prova escrita (RE) que comporá com a nota final (NF) a média final (MF), sendo MF = (NF + RE)/2.</t>
+    <t>1. Carniglia, S. C.; Barna, G. L. Handbook of industrial refractories technology. Noyes Publications. 2004. 
+2. Heinrich J. G. Introduction to the Principles of Ceramic Forming. CFI Publication. 1995.
+3. Levin, E. M. Phase Diagrams for Ceramists. The American Ceramic Society. 1964.
+4. Kingery, W. D. Introduction to Ceramics. John Wiley, 1970.
+5. Kingery, W. D. Ceramic Fabrication Process. MIT Press e John Wiley, 1958.
+6. Reed, J. S. Introduction to the Principles of ceramics Processing, John Wiley, 1988.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -478,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -603,98 +628,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
